--- a/final_results/1/github/github_stage_statistics.xlsx
+++ b/final_results/1/github/github_stage_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,520 +448,104 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>workflow_dispatch</t>
+          <t>push</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>421</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>schedule</t>
+          <t>pull_request</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>push</t>
+          <t>schedule</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>pull_request</t>
+          <t>release</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1039</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>pull_request_target</t>
+          <t>workflow_dispatch</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>branch_protection_rule</t>
+          <t>workflow_run</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>script</t>
+          <t>before_install</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>script</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>before_script</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>33</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>issue_comment</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>42</v>
-      </c>
-      <c r="C11" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>repository_dispatch</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>release</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>54</v>
-      </c>
-      <c r="C14" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>before_install</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>37</v>
-      </c>
-      <c r="C15" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>workflow_run</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>install</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>63</v>
-      </c>
-      <c r="C17" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>pull_request_review</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>check_suite</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>workflow_call</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>after_script</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>deploy</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>page_build</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>create</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>deployment_status</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>export</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>lint</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>['?']</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>pull_request_review_comment</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>pod lint</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>build examples</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>danger</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>watch</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>collect_artifacts</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
         <v>1</v>
       </c>
     </row>

--- a/final_results/1/github/github_stage_statistics.xlsx
+++ b/final_results/1/github/github_stage_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,104 +448,533 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>push</t>
+          <t>workflow_dispatch</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pull_request</t>
+          <t>schedule</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>schedule</t>
+          <t>push</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>release</t>
+          <t>pull_request</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>workflow_dispatch</t>
+          <t>pull_request_target</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>workflow_run</t>
+          <t>branch_protection_rule</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>before_install</t>
+          <t>pull_request_review</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>check_suite</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>script</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B11" t="n">
+        <v>111</v>
+      </c>
+      <c r="C11" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54</v>
+      </c>
+      <c r="C12" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>before_script</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>issue_comment</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>repository_dispatch</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>workflow_call</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>release</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>before_install</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>workflow_run</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>23</v>
+      </c>
+      <c r="C20" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>install</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>63</v>
+      </c>
+      <c r="C21" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>non_stage</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>after_script</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>deploy</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>page_build</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>create</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>deployment_status</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>export</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>lint</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>pull_request_review_comment</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>pod lint</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>build examples</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>danger</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>watch</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>collect_artifacts</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>conditional_build</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
         <v>1</v>
       </c>
     </row>

--- a/final_results/1/github/github_stage_statistics.xlsx
+++ b/final_results/1/github/github_stage_statistics.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" t="n">
-        <v>1109</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C3" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>2897</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C5" t="n">
-        <v>2005</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -621,49 +621,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>release</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>workflow_call</t>
+          <t>label</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>release</t>
+          <t>workflow_call</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>154</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>non_stage</t>
+          <t>?</t>
         </is>
       </c>
       <c r="B22" t="n">

--- a/final_results/1/github/github_stage_statistics.xlsx
+++ b/final_results/1/github/github_stage_statistics.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" t="n">
-        <v>1136</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C4" t="n">
-        <v>2947</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C5" t="n">
-        <v>2063</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
